--- a/bld_mock_data.xlsx
+++ b/bld_mock_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\as\Desktop\Medium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EA60A3-8DEB-4E9B-A140-D09908598538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA980FE3-262C-4F9D-A372-1ACE1F96BB7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="456" windowWidth="19584" windowHeight="11484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="35">
   <si>
     <t>bld</t>
   </si>
@@ -101,7 +101,46 @@
     <t>WE</t>
   </si>
   <si>
-    <t>B1</t>
+    <t>Bldg1</t>
+  </si>
+  <si>
+    <t>1-bedroom</t>
+  </si>
+  <si>
+    <t>2-bedroom</t>
+  </si>
+  <si>
+    <t>3-bedroom</t>
+  </si>
+  <si>
+    <t>4-bedroom</t>
+  </si>
+  <si>
+    <t>f_2</t>
+  </si>
+  <si>
+    <t>f_3</t>
+  </si>
+  <si>
+    <t>f_4</t>
+  </si>
+  <si>
+    <t>f_5</t>
+  </si>
+  <si>
+    <t>f_6</t>
+  </si>
+  <si>
+    <t>f_7</t>
+  </si>
+  <si>
+    <t>f_8</t>
+  </si>
+  <si>
+    <t>f_9</t>
+  </si>
+  <si>
+    <t>f_10</t>
   </si>
 </sst>
 </file>
@@ -164,6 +203,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,6 +480,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -465,8 +512,8 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -474,8 +521,8 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>2</v>
+      <c r="E2" t="s">
+        <v>26</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -488,8 +535,8 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -497,8 +544,8 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="E3" t="s">
+        <v>26</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -511,8 +558,8 @@
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -520,8 +567,8 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
-        <v>2</v>
+      <c r="E4" t="s">
+        <v>26</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -531,8 +578,8 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -540,8 +587,8 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
-        <v>2</v>
+      <c r="E5" t="s">
+        <v>26</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -554,8 +601,8 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -563,8 +610,8 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6">
-        <v>2</v>
+      <c r="E6" t="s">
+        <v>26</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -577,8 +624,8 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -586,8 +633,8 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
-        <v>2</v>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -600,8 +647,8 @@
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -609,8 +656,8 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8">
-        <v>2</v>
+      <c r="E8" t="s">
+        <v>26</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -623,8 +670,8 @@
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -632,8 +679,8 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9">
-        <v>2</v>
+      <c r="E9" t="s">
+        <v>26</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -646,8 +693,8 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -655,8 +702,8 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10">
-        <v>2</v>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -669,8 +716,8 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -678,8 +725,8 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11">
-        <v>2</v>
+      <c r="E11" t="s">
+        <v>26</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -689,8 +736,8 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -698,8 +745,8 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12">
-        <v>3</v>
+      <c r="E12" t="s">
+        <v>27</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -712,8 +759,8 @@
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -721,8 +768,8 @@
       <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="E13">
-        <v>3</v>
+      <c r="E13" t="s">
+        <v>27</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -732,8 +779,8 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -741,8 +788,8 @@
       <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E14">
-        <v>3</v>
+      <c r="E14" t="s">
+        <v>27</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -752,8 +799,8 @@
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -761,8 +808,8 @@
       <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="E15">
-        <v>3</v>
+      <c r="E15" t="s">
+        <v>27</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -772,8 +819,8 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -781,8 +828,8 @@
       <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="E16">
-        <v>3</v>
+      <c r="E16" t="s">
+        <v>27</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -795,8 +842,8 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="B17" t="s">
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -804,8 +851,8 @@
       <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="E17">
-        <v>3</v>
+      <c r="E17" t="s">
+        <v>27</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -818,8 +865,8 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="B18" t="s">
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -827,8 +874,8 @@
       <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="E18">
-        <v>3</v>
+      <c r="E18" t="s">
+        <v>27</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -838,8 +885,8 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="B19" t="s">
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -847,8 +894,8 @@
       <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="E19">
-        <v>3</v>
+      <c r="E19" t="s">
+        <v>27</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -858,8 +905,8 @@
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
-        <v>1</v>
+      <c r="B20" t="s">
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -867,8 +914,8 @@
       <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="E20">
-        <v>3</v>
+      <c r="E20" t="s">
+        <v>27</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -878,8 +925,8 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -887,8 +934,8 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21">
-        <v>4</v>
+      <c r="E21" t="s">
+        <v>28</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -901,8 +948,8 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>1</v>
+      <c r="B22" t="s">
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -910,8 +957,8 @@
       <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="E22">
-        <v>4</v>
+      <c r="E22" t="s">
+        <v>28</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -924,8 +971,8 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -933,8 +980,8 @@
       <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="E23">
-        <v>4</v>
+      <c r="E23" t="s">
+        <v>28</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -944,8 +991,8 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24">
-        <v>1</v>
+      <c r="B24" t="s">
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -953,8 +1000,8 @@
       <c r="D24" t="s">
         <v>17</v>
       </c>
-      <c r="E24">
-        <v>4</v>
+      <c r="E24" t="s">
+        <v>28</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -964,8 +1011,8 @@
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" t="s">
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -973,8 +1020,8 @@
       <c r="D25" t="s">
         <v>17</v>
       </c>
-      <c r="E25">
-        <v>4</v>
+      <c r="E25" t="s">
+        <v>28</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -984,8 +1031,8 @@
       <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B26">
-        <v>1</v>
+      <c r="B26" t="s">
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -993,8 +1040,8 @@
       <c r="D26" t="s">
         <v>18</v>
       </c>
-      <c r="E26">
-        <v>4</v>
+      <c r="E26" t="s">
+        <v>28</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -1007,8 +1054,8 @@
       <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27">
-        <v>1</v>
+      <c r="B27" t="s">
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1016,8 +1063,8 @@
       <c r="D27" t="s">
         <v>18</v>
       </c>
-      <c r="E27">
-        <v>4</v>
+      <c r="E27" t="s">
+        <v>28</v>
       </c>
       <c r="F27">
         <v>26</v>
@@ -1030,8 +1077,8 @@
       <c r="A28" t="s">
         <v>21</v>
       </c>
-      <c r="B28">
-        <v>1</v>
+      <c r="B28" t="s">
+        <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1039,8 +1086,8 @@
       <c r="D28" t="s">
         <v>18</v>
       </c>
-      <c r="E28">
-        <v>4</v>
+      <c r="E28" t="s">
+        <v>28</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -1053,8 +1100,8 @@
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29">
-        <v>1</v>
+      <c r="B29" t="s">
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1062,8 +1109,8 @@
       <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="E29">
-        <v>5</v>
+      <c r="E29" t="s">
+        <v>29</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -1076,8 +1123,8 @@
       <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="B30" t="s">
+        <v>22</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1085,8 +1132,8 @@
       <c r="D30" t="s">
         <v>17</v>
       </c>
-      <c r="E30">
-        <v>5</v>
+      <c r="E30" t="s">
+        <v>29</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -1099,8 +1146,8 @@
       <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="B31">
-        <v>1</v>
+      <c r="B31" t="s">
+        <v>22</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1108,8 +1155,8 @@
       <c r="D31" t="s">
         <v>17</v>
       </c>
-      <c r="E31">
-        <v>5</v>
+      <c r="E31" t="s">
+        <v>29</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -1119,8 +1166,8 @@
       <c r="A32" t="s">
         <v>21</v>
       </c>
-      <c r="B32">
-        <v>1</v>
+      <c r="B32" t="s">
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1128,8 +1175,8 @@
       <c r="D32" t="s">
         <v>17</v>
       </c>
-      <c r="E32">
-        <v>5</v>
+      <c r="E32" t="s">
+        <v>29</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -1139,8 +1186,8 @@
       <c r="A33" t="s">
         <v>21</v>
       </c>
-      <c r="B33">
-        <v>1</v>
+      <c r="B33" t="s">
+        <v>22</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1148,8 +1195,8 @@
       <c r="D33" t="s">
         <v>18</v>
       </c>
-      <c r="E33">
-        <v>5</v>
+      <c r="E33" t="s">
+        <v>29</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -1162,8 +1209,8 @@
       <c r="A34" t="s">
         <v>21</v>
       </c>
-      <c r="B34">
-        <v>1</v>
+      <c r="B34" t="s">
+        <v>22</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1171,8 +1218,8 @@
       <c r="D34" t="s">
         <v>18</v>
       </c>
-      <c r="E34">
-        <v>5</v>
+      <c r="E34" t="s">
+        <v>29</v>
       </c>
       <c r="F34">
         <v>33</v>
@@ -1185,8 +1232,8 @@
       <c r="A35" t="s">
         <v>21</v>
       </c>
-      <c r="B35">
-        <v>1</v>
+      <c r="B35" t="s">
+        <v>22</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1194,8 +1241,8 @@
       <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="E35">
-        <v>6</v>
+      <c r="E35" t="s">
+        <v>30</v>
       </c>
       <c r="F35">
         <v>34</v>
@@ -1205,8 +1252,8 @@
       <c r="A36" t="s">
         <v>21</v>
       </c>
-      <c r="B36">
-        <v>1</v>
+      <c r="B36" t="s">
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1214,8 +1261,8 @@
       <c r="D36" t="s">
         <v>17</v>
       </c>
-      <c r="E36">
-        <v>6</v>
+      <c r="E36" t="s">
+        <v>30</v>
       </c>
       <c r="F36">
         <v>35</v>
@@ -1225,8 +1272,8 @@
       <c r="A37" t="s">
         <v>21</v>
       </c>
-      <c r="B37">
-        <v>1</v>
+      <c r="B37" t="s">
+        <v>22</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1234,8 +1281,8 @@
       <c r="D37" t="s">
         <v>17</v>
       </c>
-      <c r="E37">
-        <v>6</v>
+      <c r="E37" t="s">
+        <v>30</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -1245,8 +1292,8 @@
       <c r="A38" t="s">
         <v>21</v>
       </c>
-      <c r="B38">
-        <v>1</v>
+      <c r="B38" t="s">
+        <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1254,8 +1301,8 @@
       <c r="D38" t="s">
         <v>17</v>
       </c>
-      <c r="E38">
-        <v>6</v>
+      <c r="E38" t="s">
+        <v>30</v>
       </c>
       <c r="F38">
         <v>37</v>
@@ -1268,8 +1315,8 @@
       <c r="A39" t="s">
         <v>21</v>
       </c>
-      <c r="B39">
-        <v>1</v>
+      <c r="B39" t="s">
+        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1277,8 +1324,8 @@
       <c r="D39" t="s">
         <v>18</v>
       </c>
-      <c r="E39">
-        <v>6</v>
+      <c r="E39" t="s">
+        <v>30</v>
       </c>
       <c r="F39">
         <v>38</v>
@@ -1288,8 +1335,8 @@
       <c r="A40" t="s">
         <v>21</v>
       </c>
-      <c r="B40">
-        <v>1</v>
+      <c r="B40" t="s">
+        <v>22</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1297,8 +1344,8 @@
       <c r="D40" t="s">
         <v>16</v>
       </c>
-      <c r="E40">
-        <v>7</v>
+      <c r="E40" t="s">
+        <v>31</v>
       </c>
       <c r="F40">
         <v>39</v>
@@ -1308,8 +1355,8 @@
       <c r="A41" t="s">
         <v>21</v>
       </c>
-      <c r="B41">
-        <v>1</v>
+      <c r="B41" t="s">
+        <v>22</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1317,8 +1364,8 @@
       <c r="D41" t="s">
         <v>17</v>
       </c>
-      <c r="E41">
-        <v>7</v>
+      <c r="E41" t="s">
+        <v>31</v>
       </c>
       <c r="F41">
         <v>40</v>
@@ -1331,8 +1378,8 @@
       <c r="A42" t="s">
         <v>21</v>
       </c>
-      <c r="B42">
-        <v>1</v>
+      <c r="B42" t="s">
+        <v>22</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1340,8 +1387,8 @@
       <c r="D42" t="s">
         <v>17</v>
       </c>
-      <c r="E42">
-        <v>7</v>
+      <c r="E42" t="s">
+        <v>31</v>
       </c>
       <c r="F42">
         <v>41</v>
@@ -1354,8 +1401,8 @@
       <c r="A43" t="s">
         <v>21</v>
       </c>
-      <c r="B43">
-        <v>1</v>
+      <c r="B43" t="s">
+        <v>22</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1363,8 +1410,8 @@
       <c r="D43" t="s">
         <v>17</v>
       </c>
-      <c r="E43">
-        <v>7</v>
+      <c r="E43" t="s">
+        <v>31</v>
       </c>
       <c r="F43">
         <v>42</v>
@@ -1374,8 +1421,8 @@
       <c r="A44" t="s">
         <v>21</v>
       </c>
-      <c r="B44">
-        <v>1</v>
+      <c r="B44" t="s">
+        <v>22</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1383,8 +1430,8 @@
       <c r="D44" t="s">
         <v>18</v>
       </c>
-      <c r="E44">
-        <v>7</v>
+      <c r="E44" t="s">
+        <v>31</v>
       </c>
       <c r="F44">
         <v>43</v>
@@ -1397,8 +1444,8 @@
       <c r="A45" t="s">
         <v>21</v>
       </c>
-      <c r="B45">
-        <v>1</v>
+      <c r="B45" t="s">
+        <v>22</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1406,8 +1453,8 @@
       <c r="D45" t="s">
         <v>16</v>
       </c>
-      <c r="E45">
-        <v>8</v>
+      <c r="E45" t="s">
+        <v>32</v>
       </c>
       <c r="F45">
         <v>44</v>
@@ -1417,8 +1464,8 @@
       <c r="A46" t="s">
         <v>21</v>
       </c>
-      <c r="B46">
-        <v>1</v>
+      <c r="B46" t="s">
+        <v>22</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1426,8 +1473,8 @@
       <c r="D46" t="s">
         <v>17</v>
       </c>
-      <c r="E46">
-        <v>8</v>
+      <c r="E46" t="s">
+        <v>32</v>
       </c>
       <c r="F46">
         <v>45</v>
@@ -1437,8 +1484,8 @@
       <c r="A47" t="s">
         <v>21</v>
       </c>
-      <c r="B47">
-        <v>1</v>
+      <c r="B47" t="s">
+        <v>22</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1446,8 +1493,8 @@
       <c r="D47" t="s">
         <v>17</v>
       </c>
-      <c r="E47">
-        <v>8</v>
+      <c r="E47" t="s">
+        <v>32</v>
       </c>
       <c r="F47">
         <v>46</v>
@@ -1457,8 +1504,8 @@
       <c r="A48" t="s">
         <v>21</v>
       </c>
-      <c r="B48">
-        <v>1</v>
+      <c r="B48" t="s">
+        <v>22</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1466,8 +1513,8 @@
       <c r="D48" t="s">
         <v>17</v>
       </c>
-      <c r="E48">
-        <v>8</v>
+      <c r="E48" t="s">
+        <v>32</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -1477,8 +1524,8 @@
       <c r="A49" t="s">
         <v>21</v>
       </c>
-      <c r="B49">
-        <v>1</v>
+      <c r="B49" t="s">
+        <v>22</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -1486,8 +1533,8 @@
       <c r="D49" t="s">
         <v>18</v>
       </c>
-      <c r="E49">
-        <v>8</v>
+      <c r="E49" t="s">
+        <v>32</v>
       </c>
       <c r="F49">
         <v>48</v>
@@ -1497,8 +1544,8 @@
       <c r="A50" t="s">
         <v>21</v>
       </c>
-      <c r="B50">
-        <v>1</v>
+      <c r="B50" t="s">
+        <v>22</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1506,8 +1553,8 @@
       <c r="D50" t="s">
         <v>16</v>
       </c>
-      <c r="E50">
-        <v>9</v>
+      <c r="E50" t="s">
+        <v>33</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -1517,8 +1564,8 @@
       <c r="A51" t="s">
         <v>21</v>
       </c>
-      <c r="B51">
-        <v>1</v>
+      <c r="B51" t="s">
+        <v>22</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1526,8 +1573,8 @@
       <c r="D51" t="s">
         <v>17</v>
       </c>
-      <c r="E51">
-        <v>9</v>
+      <c r="E51" t="s">
+        <v>33</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -1540,8 +1587,8 @@
       <c r="A52" t="s">
         <v>21</v>
       </c>
-      <c r="B52">
-        <v>1</v>
+      <c r="B52" t="s">
+        <v>22</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1549,8 +1596,8 @@
       <c r="D52" t="s">
         <v>17</v>
       </c>
-      <c r="E52">
-        <v>9</v>
+      <c r="E52" t="s">
+        <v>33</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -1560,8 +1607,8 @@
       <c r="A53" t="s">
         <v>21</v>
       </c>
-      <c r="B53">
-        <v>1</v>
+      <c r="B53" t="s">
+        <v>22</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1569,8 +1616,8 @@
       <c r="D53" t="s">
         <v>17</v>
       </c>
-      <c r="E53">
-        <v>9</v>
+      <c r="E53" t="s">
+        <v>33</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -1580,8 +1627,8 @@
       <c r="A54" t="s">
         <v>21</v>
       </c>
-      <c r="B54">
-        <v>1</v>
+      <c r="B54" t="s">
+        <v>22</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -1589,8 +1636,8 @@
       <c r="D54" t="s">
         <v>18</v>
       </c>
-      <c r="E54">
-        <v>9</v>
+      <c r="E54" t="s">
+        <v>33</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -1600,8 +1647,8 @@
       <c r="A55" t="s">
         <v>21</v>
       </c>
-      <c r="B55">
-        <v>2</v>
+      <c r="B55" t="s">
+        <v>23</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -1609,8 +1656,8 @@
       <c r="D55" t="s">
         <v>17</v>
       </c>
-      <c r="E55">
-        <v>10</v>
+      <c r="E55" t="s">
+        <v>34</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -1620,8 +1667,8 @@
       <c r="A56" t="s">
         <v>21</v>
       </c>
-      <c r="B56">
-        <v>2</v>
+      <c r="B56" t="s">
+        <v>23</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -1629,8 +1676,8 @@
       <c r="D56" t="s">
         <v>18</v>
       </c>
-      <c r="E56">
-        <v>10</v>
+      <c r="E56" t="s">
+        <v>34</v>
       </c>
       <c r="F56">
         <v>55</v>
@@ -1640,8 +1687,8 @@
       <c r="A57" t="s">
         <v>21</v>
       </c>
-      <c r="B57">
-        <v>4</v>
+      <c r="B57" t="s">
+        <v>25</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -1649,8 +1696,8 @@
       <c r="D57" t="s">
         <v>15</v>
       </c>
-      <c r="E57">
-        <v>10</v>
+      <c r="E57" t="s">
+        <v>34</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -1663,8 +1710,8 @@
       <c r="A58" t="s">
         <v>21</v>
       </c>
-      <c r="B58">
-        <v>2</v>
+      <c r="B58" t="s">
+        <v>23</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
@@ -1672,8 +1719,8 @@
       <c r="D58" t="s">
         <v>19</v>
       </c>
-      <c r="E58">
-        <v>2</v>
+      <c r="E58" t="s">
+        <v>26</v>
       </c>
       <c r="F58">
         <v>57</v>
@@ -1683,8 +1730,8 @@
       <c r="A59" t="s">
         <v>21</v>
       </c>
-      <c r="B59">
-        <v>2</v>
+      <c r="B59" t="s">
+        <v>23</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
@@ -1692,8 +1739,8 @@
       <c r="D59" t="s">
         <v>19</v>
       </c>
-      <c r="E59">
-        <v>2</v>
+      <c r="E59" t="s">
+        <v>26</v>
       </c>
       <c r="F59">
         <v>58</v>
@@ -1703,8 +1750,8 @@
       <c r="A60" t="s">
         <v>21</v>
       </c>
-      <c r="B60">
-        <v>2</v>
+      <c r="B60" t="s">
+        <v>23</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
@@ -1712,8 +1759,8 @@
       <c r="D60" t="s">
         <v>19</v>
       </c>
-      <c r="E60">
-        <v>3</v>
+      <c r="E60" t="s">
+        <v>27</v>
       </c>
       <c r="F60">
         <v>59</v>
@@ -1726,8 +1773,8 @@
       <c r="A61" t="s">
         <v>21</v>
       </c>
-      <c r="B61">
-        <v>2</v>
+      <c r="B61" t="s">
+        <v>23</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
@@ -1735,8 +1782,8 @@
       <c r="D61" t="s">
         <v>19</v>
       </c>
-      <c r="E61">
-        <v>3</v>
+      <c r="E61" t="s">
+        <v>27</v>
       </c>
       <c r="F61">
         <v>60</v>
@@ -1749,8 +1796,8 @@
       <c r="A62" t="s">
         <v>21</v>
       </c>
-      <c r="B62">
-        <v>2</v>
+      <c r="B62" t="s">
+        <v>23</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
@@ -1758,8 +1805,8 @@
       <c r="D62" t="s">
         <v>19</v>
       </c>
-      <c r="E62">
-        <v>4</v>
+      <c r="E62" t="s">
+        <v>28</v>
       </c>
       <c r="F62">
         <v>61</v>
@@ -1769,8 +1816,8 @@
       <c r="A63" t="s">
         <v>21</v>
       </c>
-      <c r="B63">
-        <v>2</v>
+      <c r="B63" t="s">
+        <v>23</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
@@ -1778,8 +1825,8 @@
       <c r="D63" t="s">
         <v>19</v>
       </c>
-      <c r="E63">
-        <v>4</v>
+      <c r="E63" t="s">
+        <v>28</v>
       </c>
       <c r="F63">
         <v>62</v>
@@ -1792,8 +1839,8 @@
       <c r="A64" t="s">
         <v>21</v>
       </c>
-      <c r="B64">
-        <v>2</v>
+      <c r="B64" t="s">
+        <v>23</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
@@ -1801,8 +1848,8 @@
       <c r="D64" t="s">
         <v>19</v>
       </c>
-      <c r="E64">
-        <v>5</v>
+      <c r="E64" t="s">
+        <v>29</v>
       </c>
       <c r="F64">
         <v>63</v>
@@ -1812,8 +1859,8 @@
       <c r="A65" t="s">
         <v>21</v>
       </c>
-      <c r="B65">
-        <v>2</v>
+      <c r="B65" t="s">
+        <v>23</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -1821,8 +1868,8 @@
       <c r="D65" t="s">
         <v>19</v>
       </c>
-      <c r="E65">
-        <v>5</v>
+      <c r="E65" t="s">
+        <v>29</v>
       </c>
       <c r="F65">
         <v>64</v>
@@ -1835,8 +1882,8 @@
       <c r="A66" t="s">
         <v>21</v>
       </c>
-      <c r="B66">
-        <v>2</v>
+      <c r="B66" t="s">
+        <v>23</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -1844,8 +1891,8 @@
       <c r="D66" t="s">
         <v>20</v>
       </c>
-      <c r="E66">
-        <v>5</v>
+      <c r="E66" t="s">
+        <v>29</v>
       </c>
       <c r="F66">
         <v>65</v>
@@ -1858,8 +1905,8 @@
       <c r="A67" t="s">
         <v>21</v>
       </c>
-      <c r="B67">
-        <v>2</v>
+      <c r="B67" t="s">
+        <v>23</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
@@ -1867,8 +1914,8 @@
       <c r="D67" t="s">
         <v>19</v>
       </c>
-      <c r="E67">
-        <v>6</v>
+      <c r="E67" t="s">
+        <v>30</v>
       </c>
       <c r="F67">
         <v>66</v>
@@ -1881,8 +1928,8 @@
       <c r="A68" t="s">
         <v>21</v>
       </c>
-      <c r="B68">
-        <v>2</v>
+      <c r="B68" t="s">
+        <v>23</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
@@ -1890,8 +1937,8 @@
       <c r="D68" t="s">
         <v>19</v>
       </c>
-      <c r="E68">
-        <v>6</v>
+      <c r="E68" t="s">
+        <v>30</v>
       </c>
       <c r="F68">
         <v>67</v>
@@ -1901,8 +1948,8 @@
       <c r="A69" t="s">
         <v>21</v>
       </c>
-      <c r="B69">
-        <v>2</v>
+      <c r="B69" t="s">
+        <v>23</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
@@ -1910,8 +1957,8 @@
       <c r="D69" t="s">
         <v>20</v>
       </c>
-      <c r="E69">
-        <v>6</v>
+      <c r="E69" t="s">
+        <v>30</v>
       </c>
       <c r="F69">
         <v>68</v>
@@ -1921,8 +1968,8 @@
       <c r="A70" t="s">
         <v>21</v>
       </c>
-      <c r="B70">
-        <v>2</v>
+      <c r="B70" t="s">
+        <v>23</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
@@ -1930,8 +1977,8 @@
       <c r="D70" t="s">
         <v>20</v>
       </c>
-      <c r="E70">
-        <v>6</v>
+      <c r="E70" t="s">
+        <v>30</v>
       </c>
       <c r="F70">
         <v>69</v>
@@ -1944,8 +1991,8 @@
       <c r="A71" t="s">
         <v>21</v>
       </c>
-      <c r="B71">
-        <v>2</v>
+      <c r="B71" t="s">
+        <v>23</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
@@ -1953,8 +2000,8 @@
       <c r="D71" t="s">
         <v>19</v>
       </c>
-      <c r="E71">
-        <v>7</v>
+      <c r="E71" t="s">
+        <v>31</v>
       </c>
       <c r="F71">
         <v>70</v>
@@ -1967,8 +2014,8 @@
       <c r="A72" t="s">
         <v>21</v>
       </c>
-      <c r="B72">
-        <v>2</v>
+      <c r="B72" t="s">
+        <v>23</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
@@ -1976,8 +2023,8 @@
       <c r="D72" t="s">
         <v>19</v>
       </c>
-      <c r="E72">
-        <v>7</v>
+      <c r="E72" t="s">
+        <v>31</v>
       </c>
       <c r="F72">
         <v>71</v>
@@ -1987,8 +2034,8 @@
       <c r="A73" t="s">
         <v>21</v>
       </c>
-      <c r="B73">
-        <v>2</v>
+      <c r="B73" t="s">
+        <v>23</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
@@ -1996,8 +2043,8 @@
       <c r="D73" t="s">
         <v>20</v>
       </c>
-      <c r="E73">
-        <v>7</v>
+      <c r="E73" t="s">
+        <v>31</v>
       </c>
       <c r="F73">
         <v>72</v>
@@ -2007,8 +2054,8 @@
       <c r="A74" t="s">
         <v>21</v>
       </c>
-      <c r="B74">
-        <v>2</v>
+      <c r="B74" t="s">
+        <v>23</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
@@ -2016,8 +2063,8 @@
       <c r="D74" t="s">
         <v>20</v>
       </c>
-      <c r="E74">
-        <v>7</v>
+      <c r="E74" t="s">
+        <v>31</v>
       </c>
       <c r="F74">
         <v>73</v>
@@ -2030,8 +2077,8 @@
       <c r="A75" t="s">
         <v>21</v>
       </c>
-      <c r="B75">
-        <v>2</v>
+      <c r="B75" t="s">
+        <v>23</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
@@ -2039,8 +2086,8 @@
       <c r="D75" t="s">
         <v>19</v>
       </c>
-      <c r="E75">
-        <v>8</v>
+      <c r="E75" t="s">
+        <v>32</v>
       </c>
       <c r="F75">
         <v>74</v>
@@ -2050,8 +2097,8 @@
       <c r="A76" t="s">
         <v>21</v>
       </c>
-      <c r="B76">
-        <v>2</v>
+      <c r="B76" t="s">
+        <v>23</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -2059,8 +2106,8 @@
       <c r="D76" t="s">
         <v>19</v>
       </c>
-      <c r="E76">
-        <v>8</v>
+      <c r="E76" t="s">
+        <v>32</v>
       </c>
       <c r="F76">
         <v>75</v>
@@ -2070,8 +2117,8 @@
       <c r="A77" t="s">
         <v>21</v>
       </c>
-      <c r="B77">
-        <v>2</v>
+      <c r="B77" t="s">
+        <v>23</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -2079,8 +2126,8 @@
       <c r="D77" t="s">
         <v>20</v>
       </c>
-      <c r="E77">
-        <v>8</v>
+      <c r="E77" t="s">
+        <v>32</v>
       </c>
       <c r="F77">
         <v>76</v>
@@ -2090,8 +2137,8 @@
       <c r="A78" t="s">
         <v>21</v>
       </c>
-      <c r="B78">
-        <v>2</v>
+      <c r="B78" t="s">
+        <v>23</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -2099,8 +2146,8 @@
       <c r="D78" t="s">
         <v>20</v>
       </c>
-      <c r="E78">
-        <v>8</v>
+      <c r="E78" t="s">
+        <v>32</v>
       </c>
       <c r="F78">
         <v>77</v>
@@ -2113,8 +2160,8 @@
       <c r="A79" t="s">
         <v>21</v>
       </c>
-      <c r="B79">
-        <v>2</v>
+      <c r="B79" t="s">
+        <v>23</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -2122,8 +2169,8 @@
       <c r="D79" t="s">
         <v>19</v>
       </c>
-      <c r="E79">
-        <v>9</v>
+      <c r="E79" t="s">
+        <v>33</v>
       </c>
       <c r="F79">
         <v>78</v>
@@ -2133,8 +2180,8 @@
       <c r="A80" t="s">
         <v>21</v>
       </c>
-      <c r="B80">
-        <v>2</v>
+      <c r="B80" t="s">
+        <v>23</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
@@ -2142,8 +2189,8 @@
       <c r="D80" t="s">
         <v>19</v>
       </c>
-      <c r="E80">
-        <v>9</v>
+      <c r="E80" t="s">
+        <v>33</v>
       </c>
       <c r="F80">
         <v>79</v>
@@ -2153,8 +2200,8 @@
       <c r="A81" t="s">
         <v>21</v>
       </c>
-      <c r="B81">
-        <v>2</v>
+      <c r="B81" t="s">
+        <v>23</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
@@ -2162,8 +2209,8 @@
       <c r="D81" t="s">
         <v>20</v>
       </c>
-      <c r="E81">
-        <v>9</v>
+      <c r="E81" t="s">
+        <v>33</v>
       </c>
       <c r="F81">
         <v>80</v>
@@ -2173,8 +2220,8 @@
       <c r="A82" t="s">
         <v>21</v>
       </c>
-      <c r="B82">
-        <v>2</v>
+      <c r="B82" t="s">
+        <v>23</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
@@ -2182,8 +2229,8 @@
       <c r="D82" t="s">
         <v>20</v>
       </c>
-      <c r="E82">
-        <v>9</v>
+      <c r="E82" t="s">
+        <v>33</v>
       </c>
       <c r="F82">
         <v>81</v>
@@ -2193,8 +2240,8 @@
       <c r="A83" t="s">
         <v>21</v>
       </c>
-      <c r="B83">
-        <v>3</v>
+      <c r="B83" t="s">
+        <v>24</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
@@ -2202,8 +2249,8 @@
       <c r="D83" t="s">
         <v>19</v>
       </c>
-      <c r="E83">
-        <v>10</v>
+      <c r="E83" t="s">
+        <v>34</v>
       </c>
       <c r="F83">
         <v>82</v>
@@ -2213,8 +2260,8 @@
       <c r="A84" t="s">
         <v>21</v>
       </c>
-      <c r="B84">
-        <v>3</v>
+      <c r="B84" t="s">
+        <v>24</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
@@ -2222,8 +2269,8 @@
       <c r="D84" t="s">
         <v>20</v>
       </c>
-      <c r="E84">
-        <v>10</v>
+      <c r="E84" t="s">
+        <v>34</v>
       </c>
       <c r="F84">
         <v>83</v>
@@ -2236,8 +2283,8 @@
       <c r="A85" t="s">
         <v>21</v>
       </c>
-      <c r="B85">
-        <v>2</v>
+      <c r="B85" t="s">
+        <v>23</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -2245,8 +2292,8 @@
       <c r="D85" t="s">
         <v>20</v>
       </c>
-      <c r="E85">
-        <v>10</v>
+      <c r="E85" t="s">
+        <v>34</v>
       </c>
       <c r="F85">
         <v>84</v>
@@ -2256,8 +2303,8 @@
       <c r="A86" t="s">
         <v>21</v>
       </c>
-      <c r="B86">
-        <v>2</v>
+      <c r="B86" t="s">
+        <v>23</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
@@ -2265,8 +2312,8 @@
       <c r="D86" t="s">
         <v>11</v>
       </c>
-      <c r="E86">
-        <v>2</v>
+      <c r="E86" t="s">
+        <v>26</v>
       </c>
       <c r="F86">
         <v>85</v>
@@ -2276,8 +2323,8 @@
       <c r="A87" t="s">
         <v>21</v>
       </c>
-      <c r="B87">
-        <v>2</v>
+      <c r="B87" t="s">
+        <v>23</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
@@ -2285,8 +2332,8 @@
       <c r="D87" t="s">
         <v>12</v>
       </c>
-      <c r="E87">
-        <v>2</v>
+      <c r="E87" t="s">
+        <v>26</v>
       </c>
       <c r="F87">
         <v>86</v>
@@ -2296,8 +2343,8 @@
       <c r="A88" t="s">
         <v>21</v>
       </c>
-      <c r="B88">
-        <v>2</v>
+      <c r="B88" t="s">
+        <v>23</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
@@ -2305,8 +2352,8 @@
       <c r="D88" t="s">
         <v>13</v>
       </c>
-      <c r="E88">
-        <v>2</v>
+      <c r="E88" t="s">
+        <v>26</v>
       </c>
       <c r="F88">
         <v>87</v>
@@ -2319,8 +2366,8 @@
       <c r="A89" t="s">
         <v>21</v>
       </c>
-      <c r="B89">
-        <v>2</v>
+      <c r="B89" t="s">
+        <v>23</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
@@ -2328,8 +2375,8 @@
       <c r="D89" t="s">
         <v>12</v>
       </c>
-      <c r="E89">
-        <v>2</v>
+      <c r="E89" t="s">
+        <v>26</v>
       </c>
       <c r="F89">
         <v>88</v>
@@ -2342,8 +2389,8 @@
       <c r="A90" t="s">
         <v>21</v>
       </c>
-      <c r="B90">
-        <v>2</v>
+      <c r="B90" t="s">
+        <v>23</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
@@ -2351,8 +2398,8 @@
       <c r="D90" t="s">
         <v>14</v>
       </c>
-      <c r="E90">
-        <v>2</v>
+      <c r="E90" t="s">
+        <v>26</v>
       </c>
       <c r="F90">
         <v>89</v>
@@ -2365,8 +2412,8 @@
       <c r="A91" t="s">
         <v>21</v>
       </c>
-      <c r="B91">
-        <v>3</v>
+      <c r="B91" t="s">
+        <v>24</v>
       </c>
       <c r="C91" t="s">
         <v>9</v>
@@ -2374,8 +2421,8 @@
       <c r="D91" t="s">
         <v>11</v>
       </c>
-      <c r="E91">
-        <v>3</v>
+      <c r="E91" t="s">
+        <v>27</v>
       </c>
       <c r="F91">
         <v>90</v>
@@ -2385,8 +2432,8 @@
       <c r="A92" t="s">
         <v>21</v>
       </c>
-      <c r="B92">
-        <v>2</v>
+      <c r="B92" t="s">
+        <v>23</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
@@ -2394,8 +2441,8 @@
       <c r="D92" t="s">
         <v>12</v>
       </c>
-      <c r="E92">
-        <v>3</v>
+      <c r="E92" t="s">
+        <v>27</v>
       </c>
       <c r="F92">
         <v>91</v>
@@ -2405,8 +2452,8 @@
       <c r="A93" t="s">
         <v>21</v>
       </c>
-      <c r="B93">
-        <v>2</v>
+      <c r="B93" t="s">
+        <v>23</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
@@ -2414,8 +2461,8 @@
       <c r="D93" t="s">
         <v>13</v>
       </c>
-      <c r="E93">
-        <v>3</v>
+      <c r="E93" t="s">
+        <v>27</v>
       </c>
       <c r="F93">
         <v>92</v>
@@ -2425,8 +2472,8 @@
       <c r="A94" t="s">
         <v>21</v>
       </c>
-      <c r="B94">
-        <v>2</v>
+      <c r="B94" t="s">
+        <v>23</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
@@ -2434,8 +2481,8 @@
       <c r="D94" t="s">
         <v>12</v>
       </c>
-      <c r="E94">
-        <v>3</v>
+      <c r="E94" t="s">
+        <v>27</v>
       </c>
       <c r="F94">
         <v>93</v>
@@ -2445,8 +2492,8 @@
       <c r="A95" t="s">
         <v>21</v>
       </c>
-      <c r="B95">
-        <v>2</v>
+      <c r="B95" t="s">
+        <v>23</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
@@ -2454,8 +2501,8 @@
       <c r="D95" t="s">
         <v>14</v>
       </c>
-      <c r="E95">
-        <v>3</v>
+      <c r="E95" t="s">
+        <v>27</v>
       </c>
       <c r="F95">
         <v>94</v>
@@ -2468,8 +2515,8 @@
       <c r="A96" t="s">
         <v>21</v>
       </c>
-      <c r="B96">
-        <v>2</v>
+      <c r="B96" t="s">
+        <v>23</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
@@ -2477,8 +2524,8 @@
       <c r="D96" t="s">
         <v>11</v>
       </c>
-      <c r="E96">
-        <v>4</v>
+      <c r="E96" t="s">
+        <v>28</v>
       </c>
       <c r="F96">
         <v>95</v>
@@ -2488,8 +2535,8 @@
       <c r="A97" t="s">
         <v>21</v>
       </c>
-      <c r="B97">
-        <v>2</v>
+      <c r="B97" t="s">
+        <v>23</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
@@ -2497,8 +2544,8 @@
       <c r="D97" t="s">
         <v>12</v>
       </c>
-      <c r="E97">
-        <v>4</v>
+      <c r="E97" t="s">
+        <v>28</v>
       </c>
       <c r="F97">
         <v>96</v>
@@ -2511,8 +2558,8 @@
       <c r="A98" t="s">
         <v>21</v>
       </c>
-      <c r="B98">
-        <v>2</v>
+      <c r="B98" t="s">
+        <v>23</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
@@ -2520,8 +2567,8 @@
       <c r="D98" t="s">
         <v>13</v>
       </c>
-      <c r="E98">
-        <v>4</v>
+      <c r="E98" t="s">
+        <v>28</v>
       </c>
       <c r="F98">
         <v>97</v>
@@ -2531,8 +2578,8 @@
       <c r="A99" t="s">
         <v>21</v>
       </c>
-      <c r="B99">
-        <v>2</v>
+      <c r="B99" t="s">
+        <v>23</v>
       </c>
       <c r="C99" t="s">
         <v>9</v>
@@ -2540,8 +2587,8 @@
       <c r="D99" t="s">
         <v>12</v>
       </c>
-      <c r="E99">
-        <v>4</v>
+      <c r="E99" t="s">
+        <v>28</v>
       </c>
       <c r="F99">
         <v>98</v>
@@ -2551,8 +2598,8 @@
       <c r="A100" t="s">
         <v>21</v>
       </c>
-      <c r="B100">
-        <v>2</v>
+      <c r="B100" t="s">
+        <v>23</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
@@ -2560,8 +2607,8 @@
       <c r="D100" t="s">
         <v>14</v>
       </c>
-      <c r="E100">
-        <v>4</v>
+      <c r="E100" t="s">
+        <v>28</v>
       </c>
       <c r="F100">
         <v>99</v>
@@ -2571,8 +2618,8 @@
       <c r="A101" t="s">
         <v>21</v>
       </c>
-      <c r="B101">
-        <v>2</v>
+      <c r="B101" t="s">
+        <v>23</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
@@ -2580,8 +2627,8 @@
       <c r="D101" t="s">
         <v>11</v>
       </c>
-      <c r="E101">
-        <v>5</v>
+      <c r="E101" t="s">
+        <v>29</v>
       </c>
       <c r="F101">
         <v>100</v>
@@ -2594,8 +2641,8 @@
       <c r="A102" t="s">
         <v>21</v>
       </c>
-      <c r="B102">
-        <v>3</v>
+      <c r="B102" t="s">
+        <v>24</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -2603,8 +2650,8 @@
       <c r="D102" t="s">
         <v>12</v>
       </c>
-      <c r="E102">
-        <v>5</v>
+      <c r="E102" t="s">
+        <v>29</v>
       </c>
       <c r="F102">
         <v>101</v>
@@ -2617,8 +2664,8 @@
       <c r="A103" t="s">
         <v>21</v>
       </c>
-      <c r="B103">
-        <v>2</v>
+      <c r="B103" t="s">
+        <v>23</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
@@ -2626,8 +2673,8 @@
       <c r="D103" t="s">
         <v>13</v>
       </c>
-      <c r="E103">
-        <v>5</v>
+      <c r="E103" t="s">
+        <v>29</v>
       </c>
       <c r="F103">
         <v>102</v>
@@ -2637,8 +2684,8 @@
       <c r="A104" t="s">
         <v>21</v>
       </c>
-      <c r="B104">
-        <v>3</v>
+      <c r="B104" t="s">
+        <v>24</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
@@ -2646,8 +2693,8 @@
       <c r="D104" t="s">
         <v>12</v>
       </c>
-      <c r="E104">
-        <v>5</v>
+      <c r="E104" t="s">
+        <v>29</v>
       </c>
       <c r="F104">
         <v>103</v>
@@ -2660,8 +2707,8 @@
       <c r="A105" t="s">
         <v>21</v>
       </c>
-      <c r="B105">
-        <v>3</v>
+      <c r="B105" t="s">
+        <v>24</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
@@ -2669,8 +2716,8 @@
       <c r="D105" t="s">
         <v>14</v>
       </c>
-      <c r="E105">
-        <v>5</v>
+      <c r="E105" t="s">
+        <v>29</v>
       </c>
       <c r="F105">
         <v>104</v>
@@ -2683,8 +2730,8 @@
       <c r="A106" t="s">
         <v>21</v>
       </c>
-      <c r="B106">
-        <v>2</v>
+      <c r="B106" t="s">
+        <v>23</v>
       </c>
       <c r="C106" t="s">
         <v>9</v>
@@ -2692,8 +2739,8 @@
       <c r="D106" t="s">
         <v>11</v>
       </c>
-      <c r="E106">
-        <v>6</v>
+      <c r="E106" t="s">
+        <v>30</v>
       </c>
       <c r="F106">
         <v>105</v>
@@ -2703,8 +2750,8 @@
       <c r="A107" t="s">
         <v>21</v>
       </c>
-      <c r="B107">
-        <v>1</v>
+      <c r="B107" t="s">
+        <v>22</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
@@ -2712,8 +2759,8 @@
       <c r="D107" t="s">
         <v>12</v>
       </c>
-      <c r="E107">
-        <v>6</v>
+      <c r="E107" t="s">
+        <v>30</v>
       </c>
       <c r="F107">
         <v>106</v>
@@ -2723,8 +2770,8 @@
       <c r="A108" t="s">
         <v>21</v>
       </c>
-      <c r="B108">
-        <v>2</v>
+      <c r="B108" t="s">
+        <v>23</v>
       </c>
       <c r="C108" t="s">
         <v>9</v>
@@ -2732,8 +2779,8 @@
       <c r="D108" t="s">
         <v>13</v>
       </c>
-      <c r="E108">
-        <v>6</v>
+      <c r="E108" t="s">
+        <v>30</v>
       </c>
       <c r="F108">
         <v>107</v>
@@ -2746,8 +2793,8 @@
       <c r="A109" t="s">
         <v>21</v>
       </c>
-      <c r="B109">
-        <v>3</v>
+      <c r="B109" t="s">
+        <v>24</v>
       </c>
       <c r="C109" t="s">
         <v>9</v>
@@ -2755,8 +2802,8 @@
       <c r="D109" t="s">
         <v>12</v>
       </c>
-      <c r="E109">
-        <v>6</v>
+      <c r="E109" t="s">
+        <v>30</v>
       </c>
       <c r="F109">
         <v>108</v>
@@ -2769,8 +2816,8 @@
       <c r="A110" t="s">
         <v>21</v>
       </c>
-      <c r="B110">
-        <v>3</v>
+      <c r="B110" t="s">
+        <v>24</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
@@ -2778,8 +2825,8 @@
       <c r="D110" t="s">
         <v>14</v>
       </c>
-      <c r="E110">
-        <v>6</v>
+      <c r="E110" t="s">
+        <v>30</v>
       </c>
       <c r="F110">
         <v>109</v>
@@ -2789,8 +2836,8 @@
       <c r="A111" t="s">
         <v>21</v>
       </c>
-      <c r="B111">
-        <v>2</v>
+      <c r="B111" t="s">
+        <v>23</v>
       </c>
       <c r="C111" t="s">
         <v>9</v>
@@ -2798,8 +2845,8 @@
       <c r="D111" t="s">
         <v>11</v>
       </c>
-      <c r="E111">
-        <v>7</v>
+      <c r="E111" t="s">
+        <v>31</v>
       </c>
       <c r="F111">
         <v>110</v>
@@ -2809,8 +2856,8 @@
       <c r="A112" t="s">
         <v>21</v>
       </c>
-      <c r="B112">
-        <v>1</v>
+      <c r="B112" t="s">
+        <v>22</v>
       </c>
       <c r="C112" t="s">
         <v>9</v>
@@ -2818,8 +2865,8 @@
       <c r="D112" t="s">
         <v>12</v>
       </c>
-      <c r="E112">
-        <v>7</v>
+      <c r="E112" t="s">
+        <v>31</v>
       </c>
       <c r="F112">
         <v>111</v>
@@ -2832,8 +2879,8 @@
       <c r="A113" t="s">
         <v>21</v>
       </c>
-      <c r="B113">
-        <v>2</v>
+      <c r="B113" t="s">
+        <v>23</v>
       </c>
       <c r="C113" t="s">
         <v>9</v>
@@ -2841,8 +2888,8 @@
       <c r="D113" t="s">
         <v>13</v>
       </c>
-      <c r="E113">
-        <v>7</v>
+      <c r="E113" t="s">
+        <v>31</v>
       </c>
       <c r="F113">
         <v>112</v>
@@ -2855,8 +2902,8 @@
       <c r="A114" t="s">
         <v>21</v>
       </c>
-      <c r="B114">
-        <v>3</v>
+      <c r="B114" t="s">
+        <v>24</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
@@ -2864,8 +2911,8 @@
       <c r="D114" t="s">
         <v>12</v>
       </c>
-      <c r="E114">
-        <v>7</v>
+      <c r="E114" t="s">
+        <v>31</v>
       </c>
       <c r="F114">
         <v>113</v>
@@ -2875,8 +2922,8 @@
       <c r="A115" t="s">
         <v>21</v>
       </c>
-      <c r="B115">
-        <v>3</v>
+      <c r="B115" t="s">
+        <v>24</v>
       </c>
       <c r="C115" t="s">
         <v>9</v>
@@ -2884,8 +2931,8 @@
       <c r="D115" t="s">
         <v>14</v>
       </c>
-      <c r="E115">
-        <v>7</v>
+      <c r="E115" t="s">
+        <v>31</v>
       </c>
       <c r="F115">
         <v>114</v>
@@ -2898,8 +2945,8 @@
       <c r="A116" t="s">
         <v>21</v>
       </c>
-      <c r="B116">
-        <v>2</v>
+      <c r="B116" t="s">
+        <v>23</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
@@ -2907,8 +2954,8 @@
       <c r="D116" t="s">
         <v>11</v>
       </c>
-      <c r="E116">
-        <v>8</v>
+      <c r="E116" t="s">
+        <v>32</v>
       </c>
       <c r="F116">
         <v>115</v>
@@ -2921,8 +2968,8 @@
       <c r="A117" t="s">
         <v>21</v>
       </c>
-      <c r="B117">
-        <v>2</v>
+      <c r="B117" t="s">
+        <v>23</v>
       </c>
       <c r="C117" t="s">
         <v>9</v>
@@ -2930,8 +2977,8 @@
       <c r="D117" t="s">
         <v>12</v>
       </c>
-      <c r="E117">
-        <v>8</v>
+      <c r="E117" t="s">
+        <v>32</v>
       </c>
       <c r="F117">
         <v>116</v>
@@ -2941,8 +2988,8 @@
       <c r="A118" t="s">
         <v>21</v>
       </c>
-      <c r="B118">
-        <v>2</v>
+      <c r="B118" t="s">
+        <v>23</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
@@ -2950,8 +2997,8 @@
       <c r="D118" t="s">
         <v>13</v>
       </c>
-      <c r="E118">
-        <v>8</v>
+      <c r="E118" t="s">
+        <v>32</v>
       </c>
       <c r="F118">
         <v>117</v>
@@ -2961,8 +3008,8 @@
       <c r="A119" t="s">
         <v>21</v>
       </c>
-      <c r="B119">
-        <v>3</v>
+      <c r="B119" t="s">
+        <v>24</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
@@ -2970,8 +3017,8 @@
       <c r="D119" t="s">
         <v>12</v>
       </c>
-      <c r="E119">
-        <v>8</v>
+      <c r="E119" t="s">
+        <v>32</v>
       </c>
       <c r="F119">
         <v>118</v>
@@ -2984,8 +3031,8 @@
       <c r="A120" t="s">
         <v>21</v>
       </c>
-      <c r="B120">
-        <v>3</v>
+      <c r="B120" t="s">
+        <v>24</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
@@ -2993,8 +3040,8 @@
       <c r="D120" t="s">
         <v>14</v>
       </c>
-      <c r="E120">
-        <v>8</v>
+      <c r="E120" t="s">
+        <v>32</v>
       </c>
       <c r="F120">
         <v>119</v>
@@ -3007,8 +3054,8 @@
       <c r="A121" t="s">
         <v>21</v>
       </c>
-      <c r="B121">
-        <v>2</v>
+      <c r="B121" t="s">
+        <v>23</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
@@ -3016,8 +3063,8 @@
       <c r="D121" t="s">
         <v>11</v>
       </c>
-      <c r="E121">
-        <v>9</v>
+      <c r="E121" t="s">
+        <v>33</v>
       </c>
       <c r="F121">
         <v>120</v>
@@ -3027,8 +3074,8 @@
       <c r="A122" t="s">
         <v>21</v>
       </c>
-      <c r="B122">
-        <v>2</v>
+      <c r="B122" t="s">
+        <v>23</v>
       </c>
       <c r="C122" t="s">
         <v>9</v>
@@ -3036,8 +3083,8 @@
       <c r="D122" t="s">
         <v>12</v>
       </c>
-      <c r="E122">
-        <v>9</v>
+      <c r="E122" t="s">
+        <v>33</v>
       </c>
       <c r="F122">
         <v>121</v>
@@ -3047,8 +3094,8 @@
       <c r="A123" t="s">
         <v>21</v>
       </c>
-      <c r="B123">
-        <v>2</v>
+      <c r="B123" t="s">
+        <v>23</v>
       </c>
       <c r="C123" t="s">
         <v>9</v>
@@ -3056,8 +3103,8 @@
       <c r="D123" t="s">
         <v>13</v>
       </c>
-      <c r="E123">
-        <v>9</v>
+      <c r="E123" t="s">
+        <v>33</v>
       </c>
       <c r="F123">
         <v>122</v>
@@ -3070,8 +3117,8 @@
       <c r="A124" t="s">
         <v>21</v>
       </c>
-      <c r="B124">
-        <v>3</v>
+      <c r="B124" t="s">
+        <v>24</v>
       </c>
       <c r="C124" t="s">
         <v>9</v>
@@ -3079,8 +3126,8 @@
       <c r="D124" t="s">
         <v>12</v>
       </c>
-      <c r="E124">
-        <v>9</v>
+      <c r="E124" t="s">
+        <v>33</v>
       </c>
       <c r="F124">
         <v>123</v>
@@ -3090,8 +3137,8 @@
       <c r="A125" t="s">
         <v>21</v>
       </c>
-      <c r="B125">
-        <v>3</v>
+      <c r="B125" t="s">
+        <v>24</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
@@ -3099,8 +3146,8 @@
       <c r="D125" t="s">
         <v>14</v>
       </c>
-      <c r="E125">
-        <v>9</v>
+      <c r="E125" t="s">
+        <v>33</v>
       </c>
       <c r="F125">
         <v>124</v>
@@ -3113,8 +3160,8 @@
       <c r="A126" t="s">
         <v>21</v>
       </c>
-      <c r="B126">
-        <v>3</v>
+      <c r="B126" t="s">
+        <v>24</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
@@ -3122,8 +3169,8 @@
       <c r="D126" t="s">
         <v>11</v>
       </c>
-      <c r="E126">
-        <v>10</v>
+      <c r="E126" t="s">
+        <v>34</v>
       </c>
       <c r="F126">
         <v>125</v>
@@ -3136,8 +3183,8 @@
       <c r="A127" t="s">
         <v>21</v>
       </c>
-      <c r="B127">
-        <v>2</v>
+      <c r="B127" t="s">
+        <v>23</v>
       </c>
       <c r="C127" t="s">
         <v>9</v>
@@ -3145,8 +3192,8 @@
       <c r="D127" t="s">
         <v>12</v>
       </c>
-      <c r="E127">
-        <v>10</v>
+      <c r="E127" t="s">
+        <v>34</v>
       </c>
       <c r="F127">
         <v>126</v>
@@ -3159,8 +3206,8 @@
       <c r="A128" t="s">
         <v>21</v>
       </c>
-      <c r="B128">
-        <v>2</v>
+      <c r="B128" t="s">
+        <v>23</v>
       </c>
       <c r="C128" t="s">
         <v>9</v>
@@ -3168,8 +3215,8 @@
       <c r="D128" t="s">
         <v>13</v>
       </c>
-      <c r="E128">
-        <v>10</v>
+      <c r="E128" t="s">
+        <v>34</v>
       </c>
       <c r="F128">
         <v>127</v>
